--- a/Backend/uploads/Sample_Input_Output copy.xlsx
+++ b/Backend/uploads/Sample_Input_Output copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raghav/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC8E6E3-FBF3-6248-8612-661853EF3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8536B2-9AD5-6F4D-B7B8-D1F76776A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-17500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Sl.No</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>Emp_Validation</t>
-  </si>
-  <si>
     <t>Verify the count of Emp table</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>&gt;0</t>
   </si>
   <si>
-    <t>Dep_Validation</t>
-  </si>
-  <si>
     <t>Verify the count of Dep in Emp &amp; Dep table</t>
   </si>
   <si>
@@ -84,13 +78,22 @@
   </si>
   <si>
     <t>select count(1) from Dep</t>
+  </si>
+  <si>
+    <t>select count(1) from emp2</t>
+  </si>
+  <si>
+    <t>Emp_validation</t>
+  </si>
+  <si>
+    <t>Dep_validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +111,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +168,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,39 +710,43 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -738,343 +755,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
